--- a/audience1.xlsx
+++ b/audience1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\twentyq-api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donch\Desktop\twentyq-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{882D551E-4B8C-44A2-AF0D-6A9537A3EC8F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8753A164-475B-4A48-868D-A23304F2D918}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25714" windowHeight="13877" xr2:uid="{242F0198-4FF3-41C1-B80D-8D2EAF7811F9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25710" windowHeight="13875" xr2:uid="{242F0198-4FF3-41C1-B80D-8D2EAF7811F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>Sector Number</t>
   </si>
@@ -160,6 +160,84 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Manufacturing; Transportation; Wholesale Trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumer spending; Freight transportation services; Total trade value; World price of crude oil; </t>
+  </si>
+  <si>
+    <t>Agriculture, Forestry, Fishing and Hunting; Mining; Construction; Manufacturing; Wholesale Trade; Retail Trade; Transportation and Warehousing</t>
+  </si>
+  <si>
+    <t>Warehousing</t>
+  </si>
+  <si>
+    <t>Manufacturing; Wholesale Trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumer spending; Total trade value; World price of crude oil; </t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Households earning more that $100,000; Number of mobile internet connections; Private investment in computers and software; Total advertising expenditure</t>
+  </si>
+  <si>
+    <t>Finance and Insurance</t>
+  </si>
+  <si>
+    <t>Finance and Insurance; Manufacturing; Professional, scientific and technical services; Real estate and rental and leasing</t>
+  </si>
+  <si>
+    <t>Comsumer confidence index; Corporate profit; Per capita disposable income; Regulation for the banking sector</t>
+  </si>
+  <si>
+    <t>Real Estate and Rental and Leasing</t>
+  </si>
+  <si>
+    <t>Rental vacancy rates; Value of residential construction; Homeownership rate; Per capita disposable income; Yield on 10-year Treasury note</t>
+  </si>
+  <si>
+    <t>Agriculture, Forestry, Fishing and Hunting; Mining; Construction; Manufacturing; Transportation and Warehousing</t>
+  </si>
+  <si>
+    <t>Professional, Scientific, and Technical Services</t>
+  </si>
+  <si>
+    <t>Finance and Insurance; Information; Real estate and rental and leasing; Retail trade; Wholesale trade</t>
+  </si>
+  <si>
+    <t>US Gross demoestic product; Per capita disposable income; Total advertising expenditure; Value of residential construction; Investor uncertainty</t>
+  </si>
+  <si>
+    <t>Utilities; Construction; Information; Finance and insurance; Real estate and rental and leasing; Professional, scientific and technical services</t>
+  </si>
+  <si>
+    <t>Management of Companies and Enterprises</t>
+  </si>
+  <si>
+    <t>Administrative and support and waste management and remediation services</t>
+  </si>
+  <si>
+    <t>Educational Services</t>
+  </si>
+  <si>
+    <t>Per capita disposable income; Government funding for primary and secondary education; Government funding for universities; Number of college students; Number of K-12 students</t>
+  </si>
+  <si>
+    <t>Educational services</t>
+  </si>
+  <si>
+    <t>Health Care and Social Assistance</t>
+  </si>
+  <si>
+    <t>Federal funding for Medicare and Medicaid; Number of people with private health insurance; Number of adults aged 65 and older; Total health expenditure; National unemployment rate</t>
   </si>
 </sst>
 </file>
@@ -511,15 +589,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D86687-F534-4A08-AEEC-2D468B9C9172}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A22" sqref="A22:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -553,7 +631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -570,7 +648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -587,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -604,7 +682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>31</v>
       </c>
@@ -621,7 +699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -638,7 +716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>33</v>
       </c>
@@ -655,7 +733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>42</v>
       </c>
@@ -672,7 +750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>44</v>
       </c>
@@ -689,7 +767,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>45</v>
       </c>
@@ -706,59 +784,217 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>71</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C22" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D22" t="s">
         <v>35</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>72</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C23" t="s">
         <v>38</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>81</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>92</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C25" t="s">
         <v>44</v>
       </c>
     </row>
